--- a/output/SlitherLinkAddAllLoop VS SlitherLinkPatterns - x1 - 2024-04-23 15-15-41.xlsx
+++ b/output/SlitherLinkAddAllLoop VS SlitherLinkPatterns - x1 - 2024-04-23 15-15-41.xlsx
@@ -1013,7 +1013,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="M180" sqref="M180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
